--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/57.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/57.xlsx
@@ -479,13 +479,13 @@
         <v>0.0108843277523201</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.935878267799829</v>
+        <v>-1.926676314706877</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3930254613834548</v>
+        <v>0.3912325223278189</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2312064194998321</v>
+        <v>-0.2310720950754685</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.0444542766010401</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.949020890690144</v>
+        <v>-1.940783299361237</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3114788554100221</v>
+        <v>0.3094596089002954</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2109847534407467</v>
+        <v>-0.2118534820548373</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.06378145974420407</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.020124502693352</v>
+        <v>-2.008179119237582</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2834678327859387</v>
+        <v>0.2843248810153022</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2281592991341057</v>
+        <v>-0.2297171704471053</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.05959633883905645</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.082411614299608</v>
+        <v>-2.075515807166246</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2597259907796724</v>
+        <v>0.2586309547114909</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2346302322730131</v>
+        <v>-0.236037718632649</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.03135571919071498</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.048466956234071</v>
+        <v>-2.040472462912301</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2452802749682217</v>
+        <v>0.2477492162899483</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2222723852315618</v>
+        <v>-0.223964580968925</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.01425838625609749</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.912433545580063</v>
+        <v>-1.909430956681109</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2634695540847623</v>
+        <v>0.2604414143442176</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2094721436185653</v>
+        <v>-0.2100269618931105</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.06295907258825863</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.641020095792726</v>
+        <v>-1.636469125893364</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2628285929728534</v>
+        <v>0.2576001607593094</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1863800230127533</v>
+        <v>-0.1816188061883</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1002252139395434</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.264626998196918</v>
+        <v>-1.25892551040192</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2465023352203123</v>
+        <v>0.2411570991594956</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1292921426582231</v>
+        <v>-0.1229321731742248</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1157630638163684</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7790179232568668</v>
+        <v>-0.7694166470110513</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2714618573343965</v>
+        <v>0.2666174177687615</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02876637155106831</v>
+        <v>-0.02407961717925139</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1026511246106775</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2455338714159192</v>
+        <v>-0.2334461332712861</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1626181922533348</v>
+        <v>0.1646564193882434</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0593037292925444</v>
+        <v>0.0645409217946339</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.0575900109897536</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4246092216859917</v>
+        <v>0.4267102308888094</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04053335103582217</v>
+        <v>0.04336292423600323</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1576949100907907</v>
+        <v>0.1650097510262433</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.01982427407954718</v>
       </c>
       <c r="E13" t="n">
-        <v>1.107704401402354</v>
+        <v>1.114562247285352</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.1233672675053156</v>
+        <v>-0.1226533039888613</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2906906906916641</v>
+        <v>0.2947189633744812</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.1281633593569441</v>
       </c>
       <c r="E14" t="n">
-        <v>1.825269856496979</v>
+        <v>1.829892368752796</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.3491272035620732</v>
+        <v>-0.3376745863369854</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4367874828122612</v>
+        <v>0.4429620261887141</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.2634462519698601</v>
       </c>
       <c r="E15" t="n">
-        <v>2.530973880901063</v>
+        <v>2.531284871144426</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.6198872818287278</v>
+        <v>-0.6106305769323667</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6251920884631197</v>
+        <v>0.6315695785242089</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.4218379691791145</v>
       </c>
       <c r="E16" t="n">
-        <v>3.204098392204609</v>
+        <v>3.198389604169156</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9374185406395515</v>
+        <v>-0.9319608808757349</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7813734327476233</v>
+        <v>0.7857550370684402</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.598174528352696</v>
       </c>
       <c r="E17" t="n">
-        <v>3.86263994317616</v>
+        <v>3.851667681772981</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.197962662414118</v>
+        <v>-1.190544158064211</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9797589271479336</v>
+        <v>0.9851713254209321</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.78604360092453</v>
       </c>
       <c r="E18" t="n">
-        <v>4.402408042000379</v>
+        <v>4.39034512467329</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.556563613974113</v>
+        <v>-1.553031757642205</v>
       </c>
       <c r="G18" t="n">
-        <v>1.179147474586698</v>
+        <v>1.184091197422515</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.978191529195469</v>
       </c>
       <c r="E19" t="n">
-        <v>4.931161538026782</v>
+        <v>4.916288028124694</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.841297082494809</v>
+        <v>-1.832410499789493</v>
       </c>
       <c r="G19" t="n">
-        <v>1.377916961634918</v>
+        <v>1.376824845662918</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.167567246060955</v>
       </c>
       <c r="E20" t="n">
-        <v>5.293803902702412</v>
+        <v>5.275984015752871</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.161657184481768</v>
+        <v>-2.154279561478407</v>
       </c>
       <c r="G20" t="n">
-        <v>1.58705571022477</v>
+        <v>1.587146233206407</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.346544920096156</v>
       </c>
       <c r="E21" t="n">
-        <v>5.603878695912965</v>
+        <v>5.586869135653878</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.479292836731092</v>
+        <v>-2.465559624388005</v>
       </c>
       <c r="G21" t="n">
-        <v>1.76811919407454</v>
+        <v>1.766243032277723</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.5094526977507</v>
       </c>
       <c r="E22" t="n">
-        <v>5.842514796083446</v>
+        <v>5.82057319337327</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.789546485832782</v>
+        <v>-2.775323427355195</v>
       </c>
       <c r="G22" t="n">
-        <v>1.89551861034296</v>
+        <v>1.894141784993234</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.650833869549488</v>
       </c>
       <c r="E23" t="n">
-        <v>5.995520535770223</v>
+        <v>5.966380895971867</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.039947653519805</v>
+        <v>-3.027442341621172</v>
       </c>
       <c r="G23" t="n">
-        <v>2.014865861390019</v>
+        <v>2.009526465521566</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.764808931911499</v>
       </c>
       <c r="E24" t="n">
-        <v>6.085439057496926</v>
+        <v>6.057156465927934</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.274153237758424</v>
+        <v>-3.261268313356155</v>
       </c>
       <c r="G24" t="n">
-        <v>2.117507242180901</v>
+        <v>2.113064315840266</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.844948419459228</v>
       </c>
       <c r="E25" t="n">
-        <v>6.100252705427286</v>
+        <v>6.069000376041386</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.449776582421468</v>
+        <v>-3.436071110992108</v>
       </c>
       <c r="G25" t="n">
-        <v>2.172394830062431</v>
+        <v>2.173992122673886</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.887149126111549</v>
       </c>
       <c r="E26" t="n">
-        <v>6.047279240592936</v>
+        <v>6.017267952084309</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.616238855338105</v>
+        <v>-3.600434564778064</v>
       </c>
       <c r="G26" t="n">
-        <v>2.199167731905424</v>
+        <v>2.200252547636969</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.890380193806178</v>
       </c>
       <c r="E27" t="n">
-        <v>5.944382351386146</v>
+        <v>5.917444464108881</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.705964650716808</v>
+        <v>-3.686595652742813</v>
       </c>
       <c r="G27" t="n">
-        <v>2.202150610155151</v>
+        <v>2.20136218418606</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.858209985151253</v>
       </c>
       <c r="E28" t="n">
-        <v>5.87163545525662</v>
+        <v>5.84708474660799</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.772454510752745</v>
+        <v>-3.754461608104432</v>
       </c>
       <c r="G28" t="n">
-        <v>2.209199722338058</v>
+        <v>2.21077657427624</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.796023917363292</v>
       </c>
       <c r="E29" t="n">
-        <v>5.674596125196127</v>
+        <v>5.653041435230042</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.811961222020598</v>
+        <v>-3.790469314122422</v>
       </c>
       <c r="G29" t="n">
-        <v>2.208824489978694</v>
+        <v>2.203588757524696</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.710187460890836</v>
       </c>
       <c r="E30" t="n">
-        <v>5.463419149471366</v>
+        <v>5.444038471112644</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.84082199263359</v>
+        <v>-3.81319423263337</v>
       </c>
       <c r="G30" t="n">
-        <v>2.163107464156161</v>
+        <v>2.158338947091254</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.608495001338428</v>
       </c>
       <c r="E31" t="n">
-        <v>5.184386438721623</v>
+        <v>5.16686732167881</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.736790646060164</v>
+        <v>-3.708646029035762</v>
       </c>
       <c r="G31" t="n">
-        <v>2.081233807410365</v>
+        <v>2.075127886294185</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.497503413357695</v>
       </c>
       <c r="E32" t="n">
-        <v>4.878534104589978</v>
+        <v>4.859099404451892</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.655525099344231</v>
+        <v>-3.626712510318239</v>
       </c>
       <c r="G32" t="n">
-        <v>1.935335581830132</v>
+        <v>1.926747578959407</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.382627968529767</v>
       </c>
       <c r="E33" t="n">
-        <v>4.597333222425235</v>
+        <v>4.578428519744149</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.517744011125404</v>
+        <v>-3.493013716561593</v>
       </c>
       <c r="G33" t="n">
-        <v>1.843037181715247</v>
+        <v>1.835132481351068</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.26806802160014</v>
       </c>
       <c r="E34" t="n">
-        <v>4.264798509432233</v>
+        <v>4.249365801111328</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.402912688823526</v>
+        <v>-3.384662817711213</v>
       </c>
       <c r="G34" t="n">
-        <v>1.716573656273099</v>
+        <v>1.713427252637191</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.155954084331335</v>
       </c>
       <c r="E35" t="n">
-        <v>3.922077040908962</v>
+        <v>3.904763790646967</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.284683104590058</v>
+        <v>-3.266734003384471</v>
       </c>
       <c r="G35" t="n">
-        <v>1.604523725584402</v>
+        <v>1.596842412578132</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.048337705153344</v>
       </c>
       <c r="E36" t="n">
-        <v>3.587874952996142</v>
+        <v>3.568263587039057</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.160435932149909</v>
+        <v>-3.13954994420946</v>
       </c>
       <c r="G36" t="n">
-        <v>1.457412200040624</v>
+        <v>1.454601607465624</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.9464876294838622</v>
       </c>
       <c r="E37" t="n">
-        <v>3.23572011375751</v>
+        <v>3.224412041293422</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.01851341752122</v>
+        <v>-3.006351946947996</v>
       </c>
       <c r="G37" t="n">
-        <v>1.326749576289022</v>
+        <v>1.32406308780175</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.8507488309711985</v>
       </c>
       <c r="E38" t="n">
-        <v>2.877923648695606</v>
+        <v>2.862731848309701</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.962040217412962</v>
+        <v>-2.954023823369828</v>
       </c>
       <c r="G38" t="n">
-        <v>1.180956474171334</v>
+        <v>1.178064118903244</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.760983477203767</v>
       </c>
       <c r="E39" t="n">
-        <v>2.533295357365607</v>
+        <v>2.520899549073793</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.822904934589818</v>
+        <v>-2.814461476480093</v>
       </c>
       <c r="G39" t="n">
-        <v>1.080490565035906</v>
+        <v>1.076031578166271</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.6769573777618841</v>
       </c>
       <c r="E40" t="n">
-        <v>2.21612765052942</v>
+        <v>2.204948062297332</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.705227248534713</v>
+        <v>-2.699008173691487</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9600964595076662</v>
+        <v>0.9562901141346671</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.5980124396565922</v>
       </c>
       <c r="E41" t="n">
-        <v>1.8828891943566</v>
+        <v>1.871886271943512</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.576110815711384</v>
+        <v>-2.570502770994204</v>
       </c>
       <c r="G41" t="n">
-        <v>0.838051039588608</v>
+        <v>0.8341585513782455</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.5245954031837523</v>
       </c>
       <c r="E42" t="n">
-        <v>1.550415803383417</v>
+        <v>1.541661355030328</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.512546162025583</v>
+        <v>-2.503374139918495</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7219071340530029</v>
+        <v>0.7173065225185495</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4561627490233245</v>
       </c>
       <c r="E43" t="n">
-        <v>1.285847789070306</v>
+        <v>1.275726735704127</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.432355210704559</v>
+        <v>-2.424242453487425</v>
       </c>
       <c r="G43" t="n">
-        <v>0.657762841275111</v>
+        <v>0.6545930768697482</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3921187250188417</v>
       </c>
       <c r="E44" t="n">
-        <v>1.018277915882287</v>
+        <v>1.005006078735927</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.317036962364363</v>
+        <v>-2.311996876354546</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5499966916851399</v>
+        <v>0.5464852760265045</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3316013476488368</v>
       </c>
       <c r="E45" t="n">
-        <v>0.7997744188373456</v>
+        <v>0.7813369315453506</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.272566817611466</v>
+        <v>-2.267449349052831</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4430744498917141</v>
+        <v>0.4402565570762603</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2744357136982642</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5654016590923175</v>
+        <v>0.5461961865045045</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.18163210241349</v>
+        <v>-2.175213731005856</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3776204939762771</v>
+        <v>0.3698866192387337</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.22058007724814</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3667650364203709</v>
+        <v>0.3476836679202852</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.09347804880465</v>
+        <v>-2.082965702550108</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2962447136294808</v>
+        <v>0.2895036715937553</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1701845764588391</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2483098747568573</v>
+        <v>0.2278151797047719</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.988467009962224</v>
+        <v>-1.979248266316226</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2076343949922319</v>
+        <v>0.1990668327947796</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.123567157648971</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1194241295318919</v>
+        <v>0.1002741387715334</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.890809503329659</v>
+        <v>-1.87890427119639</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1546477897250642</v>
+        <v>0.1474993942719753</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.08058491458755061</v>
       </c>
       <c r="E50" t="n">
-        <v>0.01418094304301106</v>
+        <v>-0.004751500551802037</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.806901269569182</v>
+        <v>-1.793189957947458</v>
       </c>
       <c r="G50" t="n">
-        <v>0.08878356029608193</v>
+        <v>0.08060583093890232</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.04164107141853502</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.07692167768541902</v>
+        <v>-0.09371077068277815</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.677474576526535</v>
+        <v>-1.663025940618902</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03161829739273365</v>
+        <v>0.02068691733610022</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.006341966974757416</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.1840600065962993</v>
+        <v>-0.1926334089861152</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.557718512014021</v>
+        <v>-1.541027242238753</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.007207301440710468</v>
+        <v>-0.01336286419198154</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.02551152793803137</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.305665952039994</v>
+        <v>-0.3111528127656288</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.444014346838325</v>
+        <v>-1.429425546313965</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.07521780156332857</v>
+        <v>-0.07964904751923647</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.05433808371555796</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.3396777723177121</v>
+        <v>-0.3448478026076198</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.372013535283253</v>
+        <v>-1.358405887075984</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1395811015548567</v>
+        <v>-0.1433947471683103</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.08015880756343345</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.4687766845639502</v>
+        <v>-0.4720355119028584</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.328495341885628</v>
+        <v>-1.311260934220542</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1513505492156718</v>
+        <v>-0.1501752105024902</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.103784714627367</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.5508401475615645</v>
+        <v>-0.5482383418635652</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.239330204973834</v>
+        <v>-1.231372942878382</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.2000971748268405</v>
+        <v>-0.2011630099332039</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.125574451592258</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.6529719715687189</v>
+        <v>-0.6462163290520844</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.198781749393118</v>
+        <v>-1.190011240511029</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.2314181264730139</v>
+        <v>-0.2287345580819237</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1461394484900569</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.6764174238125308</v>
+        <v>-0.6669694526162606</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.157034594329765</v>
+        <v>-1.151687898220858</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.2663366366151864</v>
+        <v>-0.26279163985046</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1656134974662661</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.7697539181200511</v>
+        <v>-0.7653022314908705</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.144197851514496</v>
+        <v>-1.137408627891771</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.3189786705328995</v>
+        <v>-0.3156322403085368</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.1838878270213464</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.8353290580270336</v>
+        <v>-0.832538906125307</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.102132405967326</v>
+        <v>-1.099634263683781</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.3531978176395267</v>
+        <v>-0.3486380874516188</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.201000889201825</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.9679320856914525</v>
+        <v>-0.9610830000969998</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.0951665165256</v>
+        <v>-1.088881009494238</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.3961743331954242</v>
+        <v>-0.3920701380118798</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.2169342373116027</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.090479762153783</v>
+        <v>-1.080919367254513</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.094890567436418</v>
+        <v>-1.088294070161693</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.4388617592293219</v>
+        <v>-0.4322930028683236</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.2313195557412085</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.149245237764768</v>
+        <v>-1.141924556636951</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.133897212233135</v>
+        <v>-1.12728465442941</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.4988142539382148</v>
+        <v>-0.4911154203548533</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.2440783764654853</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.245084254500105</v>
+        <v>-1.236947406489471</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.163159496071127</v>
+        <v>-1.15562856801822</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.5265128262708437</v>
+        <v>-0.5204580068378454</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.255291605448465</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.378702015587706</v>
+        <v>-1.363647459722346</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.12440835969032</v>
+        <v>-1.115148734697777</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.5513570045857462</v>
+        <v>-0.5457504199166567</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.2649569012369866</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.437895285289326</v>
+        <v>-1.423290424235967</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.204262769926389</v>
+        <v>-1.19258238519912</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.6061482292932769</v>
+        <v>-0.6001766326014604</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.2737461501188792</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.536835444169754</v>
+        <v>-1.52429509111694</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.295947949843092</v>
+        <v>-1.283409056838368</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.650012454088447</v>
+        <v>-0.6471726605516296</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.2819641973371369</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.559121618229385</v>
+        <v>-1.553739880966295</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.366793863358255</v>
+        <v>-1.352831423464895</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.6738024776817133</v>
+        <v>-0.6703947254375324</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.2899090857900832</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.624095218322913</v>
+        <v>-1.621526993731004</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.449285120446505</v>
+        <v>-1.434748881653418</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.6672235009840787</v>
+        <v>-0.6673534452641696</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.2977685802374034</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.678847021731989</v>
+        <v>-1.678140358455989</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.523388401252485</v>
+        <v>-1.511305043252125</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.6929787493077082</v>
+        <v>-0.6913259748687995</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.3052774124432049</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.714120323560252</v>
+        <v>-1.708869990625344</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.635489433624364</v>
+        <v>-1.622589908741186</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.7357041365919694</v>
+        <v>-0.7306771910149708</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.3119454662130992</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.693478163650985</v>
+        <v>-1.690086471935804</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.730319557128884</v>
+        <v>-1.714905829433161</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.7575362356953271</v>
+        <v>-0.7537342704666009</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.317392263870181</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.683424272496988</v>
+        <v>-1.678038155089626</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.781926416950143</v>
+        <v>-1.768524635523692</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.777289226317231</v>
+        <v>-0.7772658655477764</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.3211818881809818</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.634260073131819</v>
+        <v>-1.628174592688912</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.852654066569942</v>
+        <v>-1.84270529887849</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.7761095074597767</v>
+        <v>-0.7728740408903231</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.322875209415862</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.545496449445025</v>
+        <v>-1.540286997856662</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.953945632900779</v>
+        <v>-1.947273943149371</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.7783623616640488</v>
+        <v>-0.7769563353525037</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.3220099022351038</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.427734810624693</v>
+        <v>-1.423748879336512</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.005830631883355</v>
+        <v>-2.002264464421311</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.7646627304270526</v>
+        <v>-0.764910938602507</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.3177583343936703</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.290363265895366</v>
+        <v>-1.290405607290002</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.057932448007433</v>
+        <v>-2.052728106587388</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.7513675325112379</v>
+        <v>-0.7523954063672377</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.309525076830542</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.104779473156143</v>
+        <v>-1.111895747551232</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.082493376992699</v>
+        <v>-2.081939288742199</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.7244719866286088</v>
+        <v>-0.7268606253053355</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.2969183233394272</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.9406029055258235</v>
+        <v>-0.9544500016200016</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.080064586993472</v>
+        <v>-2.078378231448473</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6693843721586236</v>
+        <v>-0.6714605605438957</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.2795319939689155</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.6994657429756155</v>
+        <v>-0.7112673116944305</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.1136573734691</v>
+        <v>-2.115870076350872</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.6122979518521844</v>
+        <v>-0.6101034995715485</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.2575672775317654</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.4420548844041391</v>
+        <v>-0.4531132886446816</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.114807891364735</v>
+        <v>-2.119140584074507</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5178664214764824</v>
+        <v>-0.5164589351168465</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2313173843296391</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1551817154062162</v>
+        <v>-0.1593311720805787</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.101544814506921</v>
+        <v>-2.103621002892193</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4495463911585917</v>
+        <v>-0.4469139244506833</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2012212857699262</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1432871555297037</v>
+        <v>0.1438536541889762</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.03992494487821</v>
+        <v>-2.03344963159503</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3357984245401677</v>
+        <v>-0.3312255539194416</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1684890623932563</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4853778832777027</v>
+        <v>0.491675070693792</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.982591776444407</v>
+        <v>-1.974951344784682</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2548460581397349</v>
+        <v>-0.251165276902554</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1337873169027163</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7887773366166212</v>
+        <v>0.800919096540618</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.910752300203381</v>
+        <v>-1.902390604786747</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.181443600417391</v>
+        <v>-0.1764195749365741</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.09842153678891646</v>
       </c>
       <c r="E86" t="n">
-        <v>1.105486588352264</v>
+        <v>1.116042736049533</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.862827681667394</v>
+        <v>-1.850751623907488</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1056773248358659</v>
+        <v>-0.1051254266575024</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.06366060525897854</v>
       </c>
       <c r="E87" t="n">
-        <v>1.352748652643833</v>
+        <v>1.358749450297468</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.691910072001349</v>
+        <v>-1.671927853829173</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.05893972539778749</v>
+        <v>-0.05821116140042405</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.03042932075664996</v>
       </c>
       <c r="E88" t="n">
-        <v>1.576152071081864</v>
+        <v>1.583173442351044</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.51237379845467</v>
+        <v>-1.488591075101858</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01059214483555748</v>
+        <v>0.01019793185101213</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>4.984465966139825e-05</v>
       </c>
       <c r="E89" t="n">
-        <v>1.760880275639815</v>
+        <v>1.774007568025175</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.283739027706913</v>
+        <v>-1.251044170807195</v>
       </c>
       <c r="G89" t="n">
-        <v>0.06555127507354272</v>
+        <v>0.06684487768208783</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.02749742998564058</v>
       </c>
       <c r="E90" t="n">
-        <v>1.942086844202493</v>
+        <v>1.957337046512035</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.056021167160247</v>
+        <v>-1.019194374163257</v>
       </c>
       <c r="G90" t="n">
-        <v>0.09817312956871578</v>
+        <v>0.098377536301443</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.05153812999480795</v>
       </c>
       <c r="E91" t="n">
-        <v>2.12526739778408</v>
+        <v>2.143152986897712</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8323286592002161</v>
+        <v>-0.7930051839677722</v>
       </c>
       <c r="G91" t="n">
-        <v>0.08100442406772039</v>
+        <v>0.0819957967214474</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.07181016019231953</v>
       </c>
       <c r="E92" t="n">
-        <v>2.243902145362776</v>
+        <v>2.257225084192318</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.6325940803639062</v>
+        <v>-0.5919127604069171</v>
       </c>
       <c r="G92" t="n">
-        <v>0.09360317904417155</v>
+        <v>0.09113715781862676</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.0871457332095653</v>
       </c>
       <c r="E93" t="n">
-        <v>2.347749525876748</v>
+        <v>2.362596754913199</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3838077258654276</v>
+        <v>-0.3422094957073478</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04524492622518454</v>
+        <v>0.0410764889256402</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.09684680568822764</v>
       </c>
       <c r="E94" t="n">
-        <v>2.368818019828561</v>
+        <v>2.380140692773558</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2421012983541929</v>
+        <v>-0.2002548600206586</v>
       </c>
       <c r="G94" t="n">
-        <v>0.009551130546739577</v>
+        <v>0.006280622823104091</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.1003026381000286</v>
       </c>
       <c r="E95" t="n">
-        <v>2.325261865180572</v>
+        <v>2.332089050053662</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.07531854488160127</v>
+        <v>-0.03902904958206556</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.0277560182721595</v>
+        <v>-0.02981760617652258</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.09731091179165338</v>
       </c>
       <c r="E96" t="n">
-        <v>2.22727803779969</v>
+        <v>2.231398293512234</v>
       </c>
       <c r="F96" t="n">
-        <v>0.04447548088127565</v>
+        <v>0.08167458614144749</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.06835557553605769</v>
+        <v>-0.07331827899705635</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.08927060381753966</v>
       </c>
       <c r="E97" t="n">
-        <v>2.07756178646173</v>
+        <v>2.086053426158455</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1193890883777101</v>
+        <v>0.1487915368324295</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1233336863992247</v>
+        <v>-0.1290818957331323</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.07746540127082183</v>
       </c>
       <c r="E98" t="n">
-        <v>1.884695273845054</v>
+        <v>1.891868490115689</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1875558136460554</v>
+        <v>0.2113516774316854</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1398570506440385</v>
+        <v>-0.140632336180311</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.06370886231517782</v>
       </c>
       <c r="E99" t="n">
-        <v>1.686718592910198</v>
+        <v>1.694651034188105</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1992493388061432</v>
+        <v>0.2184402109130471</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1350009306936762</v>
+        <v>-0.1335335823623129</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.04937849209327128</v>
       </c>
       <c r="E100" t="n">
-        <v>1.52593371699506</v>
+        <v>1.53962312789542</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2246906767902273</v>
+        <v>0.2396912108762232</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1295549513145867</v>
+        <v>-0.1311683044550408</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.0358628606339282</v>
       </c>
       <c r="E101" t="n">
-        <v>1.381190389454735</v>
+        <v>1.398543061015185</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2180795790345927</v>
+        <v>0.2276443540781355</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1108692558471372</v>
+        <v>-0.1103319581496828</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.02104007092129451</v>
       </c>
       <c r="E102" t="n">
-        <v>1.196403782973148</v>
+        <v>1.222486082069141</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2330450719664068</v>
+        <v>0.2408753098779502</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1430443356264922</v>
+        <v>-0.1418748371056743</v>
       </c>
     </row>
   </sheetData>
